--- a/CarsFactory/Cars Factory Rejection.xlsx
+++ b/CarsFactory/Cars Factory Rejection.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Rejection" sheetId="1" r:id="Raeb1fbfc6f01447f"/>
+    <sheet name="Rejection" sheetId="1" r:id="R4bb590d882b644a6"/>
   </sheets>
 </workbook>
 </file>
